--- a/singscore_new_code/results/deepsearch_drug_pathway_direction_indication_reasoning_citation_tab.csv.xlsx
+++ b/singscore_new_code/results/deepsearch_drug_pathway_direction_indication_reasoning_citation_tab.csv.xlsx
@@ -8,25 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GS\PySingscore_replicate\singscore_new_code\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B553923E-0F89-4478-B1D3-D53D6C350734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB353F27-C82E-46A1-B0B3-00D42E51BF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FEF4C8FA-A983-4EE7-8B89-84DD9ADD6E7F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{FEF4C8FA-A983-4EE7-8B89-84DD9ADD6E7F}"/>
   </bookViews>
   <sheets>
     <sheet name="Paclitaxel" sheetId="1" r:id="rId1"/>
-    <sheet name="Alpesilib_corrected" sheetId="6" r:id="rId2"/>
-    <sheet name="Alpesilib" sheetId="2" r:id="rId3"/>
-    <sheet name="Anastrazole" sheetId="3" r:id="rId4"/>
-    <sheet name="Fulvestrant" sheetId="4" r:id="rId5"/>
-    <sheet name="Palbociclib" sheetId="5" r:id="rId6"/>
+    <sheet name="Paclitaxel_corrected" sheetId="7" r:id="rId2"/>
+    <sheet name="Alpesilib_corrected" sheetId="6" r:id="rId3"/>
+    <sheet name="Alpesilib" sheetId="2" r:id="rId4"/>
+    <sheet name="Anastrazole" sheetId="3" r:id="rId5"/>
+    <sheet name="Fulvestrant" sheetId="4" r:id="rId6"/>
+    <sheet name="Palbociclib" sheetId="5" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Alpesilib!$C$1:$C$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Alpesilib_corrected!$A$1:$A$12</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Anastrazole!$C$1:$C$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Fulvestrant!$C$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Alpesilib!$C$1:$C$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Alpesilib_corrected!$A$1:$A$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Anastrazole!$C$1:$C$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Fulvestrant!$C$1:$C$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Paclitaxel!$C$1:$C$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Palbociclib!$C$1:$C$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Palbociclib!$C$1:$C$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="181">
   <si>
     <t>Pathway (Human)</t>
   </si>
@@ -576,6 +577,69 @@
   </si>
   <si>
     <t>PMID:33184190</t>
+  </si>
+  <si>
+    <t>Paclitaxel arrests cells in mitosis by stabilizing microtubules, suppressing G2/M progression.</t>
+  </si>
+  <si>
+    <t>PMID:16498419</t>
+  </si>
+  <si>
+    <t>Paclitaxel directly binds β-tubulin, inhibiting spindle dynamics and blocking mitotic progression.</t>
+  </si>
+  <si>
+    <t>PMID:26852996</t>
+  </si>
+  <si>
+    <t>Paclitaxel activates intrinsic apoptosis by inhibiting BCL2 phosphorylation and inducing pro-apoptotic signaling.</t>
+  </si>
+  <si>
+    <t>PMID:11087665</t>
+  </si>
+  <si>
+    <t>Paclitaxel induces interferon-stimulated genes and enhances antitumor immune activity, especially in TNBC.</t>
+  </si>
+  <si>
+    <t>PMID:30923185</t>
+  </si>
+  <si>
+    <t>Paclitaxel activates TLR4–NFκB signaling, increasing IL6/IL8 and promoting survival and chemoresistance.</t>
+  </si>
+  <si>
+    <t>PMID:21266526</t>
+  </si>
+  <si>
+    <t>TLR4-driven PI3K/AKT activation enables tumor cells to escape paclitaxel-induced apoptosis.</t>
+  </si>
+  <si>
+    <t>PMID:22964582</t>
+  </si>
+  <si>
+    <t>KEGG_CYTOKINE_CYTOKINE_RECEPTOR_INTERACTION</t>
+  </si>
+  <si>
+    <t>Paclitaxel-stimulated IL6/IL8 cytokine loops drive inflammation, survival, and treatment resistance.</t>
+  </si>
+  <si>
+    <t>PMID:26677878</t>
+  </si>
+  <si>
+    <t>GO:0045818 Drug transmembrane transporter activity (ABC efflux)</t>
+  </si>
+  <si>
+    <t>Upregulation of ABC efflux pumps (e.g., ABCB1/P-gp) exports paclitaxel, reducing intracellular drug levels.</t>
+  </si>
+  <si>
+    <t>PMID:11309394</t>
+  </si>
+  <si>
+    <t>Paclitaxel disrupts cell-cycle gene expression by halting cells before metaphase, reducing proliferation.</t>
+  </si>
+  <si>
+    <t>Paclitaxel-induced NFκB signaling increases IL6/IL8, which promote angiogenesis and tumor progression.</t>
+  </si>
+  <si>
+    <t>PMID:17050534</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5574DA14-103B-46EC-903D-33FC1EDA28C2}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1185,6 +1249,211 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7313DD7D-4BD8-4315-9A81-29D4DDE20DE2}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="67.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>164</v>
+      </c>
+      <c r="E4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>178</v>
+      </c>
+      <c r="E10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35712CE-DF7C-48E7-B6E8-4203BD65ECE2}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1409,7 +1678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48F6BECC-F706-4A64-85AF-8FE07BE8DFF1}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1616,7 +1885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B9A4B40-4485-4FE5-880A-AA3E455F42A6}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1803,7 +2072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0414F070-17B3-4CCC-B990-40C9D8FB92D4}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -1989,7 +2258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E49C2FA-FDB1-4E19-898A-F849376D2B64}">
   <dimension ref="A1:E10"/>
   <sheetViews>
